--- a/data/aerospace.xlsx
+++ b/data/aerospace.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091240048896/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CED3F6E-CD06-45D6-9AF9-E062FAC82E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3CED3F6E-CD06-45D6-9AF9-E062FAC82E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF5A6BE-58CE-49C5-A272-2A3DBAA4160C}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
         <v>94.736999999999995</v>
       </c>
       <c r="C2">
-        <v>7.9749440960658502E-2</v>
+        <v>7.9749440960658502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -424,7 +424,7 @@
         <v>94.437100000000001</v>
       </c>
       <c r="C3">
-        <v>0.10082972751179664</v>
+        <v>10.082972751179664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -435,7 +435,7 @@
         <v>93.7333</v>
       </c>
       <c r="C4">
-        <v>9.3030876189721168E-2</v>
+        <v>9.3030876189721177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
